--- a/public/stories/188_965799206_2017.xlsx
+++ b/public/stories/188_965799206_2017.xlsx
@@ -33,7 +33,7 @@
     <t>FOLIO</t>
   </si>
   <si>
-    <t>0000010</t>
+    <t>0000011</t>
   </si>
   <si>
     <t>AÑO TRIBUTARIO AÑO</t>
